--- a/misBitacoras/Bitacora-Olguin-Galo-Enero-2025.xlsx
+++ b/misBitacoras/Bitacora-Olguin-Galo-Enero-2025.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$F$18:$F$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$F$27:$F$129</definedName>
     <definedName name="g">Bitacora!$J:$J</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1" fullPrecision="1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Día</t>
   </si>
@@ -363,6 +363,24 @@
   </si>
   <si>
     <t>pruebaa</t>
+  </si>
+  <si>
+    <t>Prueba2</t>
+  </si>
+  <si>
+    <t>prueba2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Marcio Palazzo</t>
@@ -507,7 +525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -540,6 +558,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -913,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1236,6 +1259,114 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
@@ -1549,7 +1680,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L587"/>
+  <dimension ref="A1:L596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -1957,294 +2088,454 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="98">
+      <c r="A13" s="107">
         <v>23</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="107">
         <v>2025</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="108">
         <v>0.041666666666666664</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="100" t="s">
+      <c r="G13" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="98">
+        <v>23</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="98">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="99">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I14" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="J14" s="98" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="95">
+    <row r="15">
+      <c r="A15" s="95">
         <v>23</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B15" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C15" s="95">
         <v>2025</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D15" s="96">
         <v>0.041666666666666664</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E15" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="95" t="s">
+      <c r="F15" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G15" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H15" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="95" t="s">
+      <c r="I15" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="95" t="s">
+      <c r="J15" s="95" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="80">
+    <row r="16">
+      <c r="A16" s="80">
         <v>23</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B16" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C16" s="80">
         <v>2025</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D16" s="81">
         <v>0.041666666666666664</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F16" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G16" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I16" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="80" t="s">
+      <c r="J16" s="80" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="68">
+    <row r="17">
+      <c r="A17" s="68">
         <v>23</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B17" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C17" s="68">
         <v>2025</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D17" s="69">
         <v>0.041666666666666664</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E17" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F17" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G17" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I17" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J17" s="68" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="104">
+    <row r="18">
+      <c r="A18" s="123">
+        <v>24</v>
+      </c>
+      <c r="B18" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="123">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="124">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E18" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="119">
+        <v>24</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="119">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="120">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="115">
+        <v>24</v>
+      </c>
+      <c r="B20" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="115">
+        <v>2025</v>
+      </c>
+      <c r="D20" s="116">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E20" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="111">
+        <v>24</v>
+      </c>
+      <c r="B21" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="111">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="112">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E21" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="139">
+        <v>25</v>
+      </c>
+      <c r="B22" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="139">
+        <v>2025</v>
+      </c>
+      <c r="D22" s="140">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E22" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="139" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="135">
+        <v>25</v>
+      </c>
+      <c r="B23" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="135">
+        <v>2025</v>
+      </c>
+      <c r="D23" s="136">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E23" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="131">
+        <v>25</v>
+      </c>
+      <c r="B24" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="131">
+        <v>2025</v>
+      </c>
+      <c r="D24" s="132">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E24" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="127">
+        <v>25</v>
+      </c>
+      <c r="B25" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="127">
+        <v>2025</v>
+      </c>
+      <c r="D25" s="128">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E25" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="104">
         <v>31</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B26" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C26" s="104">
         <v>2025</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D26" s="105">
         <v>0.041666666666666664</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E26" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F26" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G26" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="104" t="s">
+      <c r="H26" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I26" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="104" t="s">
+      <c r="J26" s="104" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="21" t="str">
-        <f ref="K21:K37" t="array">$J$180:$J$196</f>
-        <v>Raul Daszkal</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="21" t="str">
-        <v>Santiago Lanzi</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="21" t="str">
-        <v>Laura Ozcoidi</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="21" t="str">
-        <v>Gabriela Piro</v>
-      </c>
-    </row>
-    <row r="25" ht="14.45" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="21" t="str">
-        <v>Fernando Sottano</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="21" t="str">
-        <v>Bernardo Petriz</v>
-      </c>
-    </row>
-    <row r="27" ht="14.1" customHeight="1">
+    <row r="27">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2255,9 +2546,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="10"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="21" t="str">
-        <v>Corina Fitzpatrick</v>
-      </c>
+      <c r="K27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="18"/>
@@ -2270,9 +2559,6 @@
       <c r="H28" s="44"/>
       <c r="I28" s="10"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="21" t="str">
-        <v>Roberto Lo Bue</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="18"/>
@@ -2285,9 +2571,6 @@
       <c r="H29" s="44"/>
       <c r="I29" s="10"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="21" t="str">
-        <v>Ricardo Cavallin</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="18"/>
@@ -2301,7 +2584,8 @@
       <c r="I30" s="10"/>
       <c r="J30" s="1"/>
       <c r="K30" s="21" t="str">
-        <v>Ariel Cvjetkovic</v>
+        <f ref="K30:K46" t="array">$J$189:$J$205</f>
+        <v>Raul Daszkal</v>
       </c>
     </row>
     <row r="31">
@@ -2314,9 +2598,9 @@
       <c r="G31" s="22"/>
       <c r="H31" s="44"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="30"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="21" t="str">
-        <v>Carlos Cernigoi</v>
+        <v>Santiago Lanzi</v>
       </c>
     </row>
     <row r="32">
@@ -2331,7 +2615,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="30"/>
       <c r="K32" s="21" t="str">
-        <v>Marcia Garcia</v>
+        <v>Laura Ozcoidi</v>
       </c>
     </row>
     <row r="33">
@@ -2344,12 +2628,12 @@
       <c r="G33" s="22"/>
       <c r="H33" s="44"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="21" t="str">
-        <v>Mariel Grimaldi</v>
-      </c>
-    </row>
-    <row r="34" ht="14.1" customHeight="1">
+        <v>Gabriela Piro</v>
+      </c>
+    </row>
+    <row r="34" ht="14.45" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -2359,12 +2643,12 @@
       <c r="G34" s="22"/>
       <c r="H34" s="44"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="30"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="21" t="str">
-        <v>Matías Strappazzon</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
+        <v>Fernando Sottano</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -2374,12 +2658,12 @@
       <c r="G35" s="22"/>
       <c r="H35" s="44"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="30"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="21" t="str">
-        <v>Luciano Carreras</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
+        <v>Bernardo Petriz</v>
+      </c>
+    </row>
+    <row r="36" ht="14.1" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -2391,7 +2675,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="1"/>
       <c r="K36" s="21" t="str">
-        <v>Barbara Jorquera</v>
+        <v>Corina Fitzpatrick</v>
       </c>
     </row>
     <row r="37">
@@ -2406,7 +2690,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="1"/>
       <c r="K37" s="21" t="str">
-        <v>Pablo Jimenez</v>
+        <v>Roberto Lo Bue</v>
       </c>
     </row>
     <row r="38">
@@ -2417,11 +2701,11 @@
       <c r="E38" s="21"/>
       <c r="F38" s="29"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="42"/>
+      <c r="H38" s="44"/>
       <c r="I38" s="10"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="43" t="s">
-        <v>17</v>
+      <c r="K38" s="21" t="str">
+        <v>Ricardo Cavallin</v>
       </c>
     </row>
     <row r="39">
@@ -2432,9 +2716,12 @@
       <c r="E39" s="21"/>
       <c r="F39" s="29"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="42"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="10"/>
       <c r="J39" s="1"/>
+      <c r="K39" s="21" t="str">
+        <v>Ariel Cvjetkovic</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="18"/>
@@ -2444,13 +2731,27 @@
       <c r="E40" s="21"/>
       <c r="F40" s="29"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="42"/>
+      <c r="H40" s="44"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="21" t="str">
+        <v>Carlos Cernigoi</v>
+      </c>
     </row>
     <row r="41">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="44"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="21" t="str">
+        <v>Marcia Garcia</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="18"/>
@@ -2460,11 +2761,14 @@
       <c r="E42" s="21"/>
       <c r="F42" s="29"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="42"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43">
+      <c r="J42" s="30"/>
+      <c r="K42" s="21" t="str">
+        <v>Mariel Grimaldi</v>
+      </c>
+    </row>
+    <row r="43" ht="14.1" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2472,11 +2776,14 @@
       <c r="E43" s="21"/>
       <c r="F43" s="29"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="42"/>
+      <c r="H43" s="44"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44">
+      <c r="J43" s="30"/>
+      <c r="K43" s="21" t="str">
+        <v>Matías Strappazzon</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2484,11 +2791,14 @@
       <c r="E44" s="21"/>
       <c r="F44" s="29"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="42"/>
+      <c r="H44" s="44"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45">
+      <c r="J44" s="30"/>
+      <c r="K44" s="21" t="str">
+        <v>Luciano Carreras</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2496,9 +2806,12 @@
       <c r="E45" s="21"/>
       <c r="F45" s="29"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="42"/>
+      <c r="H45" s="44"/>
       <c r="I45" s="10"/>
       <c r="J45" s="1"/>
+      <c r="K45" s="21" t="str">
+        <v>Barbara Jorquera</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="18"/>
@@ -2508,9 +2821,12 @@
       <c r="E46" s="21"/>
       <c r="F46" s="29"/>
       <c r="G46" s="22"/>
-      <c r="H46" s="42"/>
+      <c r="H46" s="44"/>
       <c r="I46" s="10"/>
       <c r="J46" s="1"/>
+      <c r="K46" s="21" t="str">
+        <v>Pablo Jimenez</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="18"/>
@@ -2523,6 +2839,9 @@
       <c r="H47" s="42"/>
       <c r="I47" s="10"/>
       <c r="J47" s="1"/>
+      <c r="K47" s="43" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="18"/>
@@ -2549,17 +2868,11 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="42"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="30"/>
+      <c r="J50" s="1"/>
     </row>
     <row r="51">
+      <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="20"/>
@@ -2568,9 +2881,10 @@
       <c r="G51" s="22"/>
       <c r="H51" s="42"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="30"/>
+      <c r="J51" s="1"/>
     </row>
     <row r="52">
+      <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="20"/>
@@ -2582,6 +2896,7 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53">
+      <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="20"/>
@@ -2593,24 +2908,26 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54">
+      <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="20"/>
       <c r="E54" s="21"/>
       <c r="F54" s="29"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="5"/>
+      <c r="H54" s="42"/>
       <c r="I54" s="10"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
+      <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="20"/>
       <c r="E55" s="21"/>
       <c r="F55" s="29"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="42"/>
       <c r="I55" s="10"/>
       <c r="J55" s="1"/>
     </row>
@@ -2622,7 +2939,7 @@
       <c r="E56" s="21"/>
       <c r="F56" s="29"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="5"/>
+      <c r="H56" s="42"/>
       <c r="I56" s="10"/>
       <c r="J56" s="1"/>
     </row>
@@ -2634,7 +2951,7 @@
       <c r="E57" s="21"/>
       <c r="F57" s="29"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="42"/>
       <c r="I57" s="10"/>
       <c r="J57" s="1"/>
     </row>
@@ -2646,60 +2963,55 @@
       <c r="E58" s="21"/>
       <c r="F58" s="29"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="3"/>
+      <c r="H58" s="42"/>
       <c r="I58" s="10"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="20"/>
       <c r="E59" s="21"/>
       <c r="F59" s="29"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="5"/>
+      <c r="H59" s="42"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60">
-      <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="20"/>
       <c r="E60" s="21"/>
       <c r="F60" s="29"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="5"/>
+      <c r="H60" s="42"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61">
-      <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="20"/>
       <c r="E61" s="21"/>
       <c r="F61" s="29"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="10"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="20"/>
       <c r="E62" s="21"/>
       <c r="F62" s="29"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="5"/>
+      <c r="H62" s="42"/>
       <c r="I62" s="10"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="20"/>
@@ -2708,19 +3020,18 @@
       <c r="G63" s="22"/>
       <c r="H63" s="5"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="30"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="20"/>
       <c r="E64" s="21"/>
       <c r="F64" s="29"/>
       <c r="G64" s="22"/>
-      <c r="H64" s="5"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="30"/>
+      <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="18"/>
@@ -2730,7 +3041,7 @@
       <c r="E65" s="21"/>
       <c r="F65" s="29"/>
       <c r="G65" s="22"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="10"/>
       <c r="J65" s="1"/>
     </row>
@@ -2754,7 +3065,7 @@
       <c r="E67" s="21"/>
       <c r="F67" s="29"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="5"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="10"/>
       <c r="J67" s="1"/>
     </row>
@@ -2778,7 +3089,7 @@
       <c r="E69" s="21"/>
       <c r="F69" s="29"/>
       <c r="G69" s="22"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="10"/>
       <c r="J69" s="1"/>
     </row>
@@ -2790,7 +3101,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="29"/>
       <c r="G70" s="22"/>
-      <c r="H70" s="5"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="10"/>
       <c r="J70" s="1"/>
     </row>
@@ -2814,9 +3125,9 @@
       <c r="E72" s="21"/>
       <c r="F72" s="29"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="3"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="30"/>
     </row>
     <row r="73">
       <c r="A73" s="18"/>
@@ -2828,7 +3139,7 @@
       <c r="G73" s="22"/>
       <c r="H73" s="5"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="30"/>
     </row>
     <row r="74">
       <c r="A74" s="18"/>
@@ -2838,7 +3149,7 @@
       <c r="E74" s="21"/>
       <c r="F74" s="29"/>
       <c r="G74" s="22"/>
-      <c r="H74" s="5"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="10"/>
       <c r="J74" s="1"/>
     </row>
@@ -2874,7 +3185,7 @@
       <c r="E77" s="21"/>
       <c r="F77" s="29"/>
       <c r="G77" s="22"/>
-      <c r="H77" s="3"/>
+      <c r="H77" s="5"/>
       <c r="I77" s="10"/>
       <c r="J77" s="1"/>
     </row>
@@ -2886,7 +3197,7 @@
       <c r="E78" s="21"/>
       <c r="F78" s="29"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="5"/>
+      <c r="H78" s="3"/>
       <c r="I78" s="10"/>
       <c r="J78" s="1"/>
     </row>
@@ -2910,7 +3221,7 @@
       <c r="E80" s="21"/>
       <c r="F80" s="29"/>
       <c r="G80" s="22"/>
-      <c r="H80" s="3"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="10"/>
       <c r="J80" s="1"/>
     </row>
@@ -2922,7 +3233,7 @@
       <c r="E81" s="21"/>
       <c r="F81" s="29"/>
       <c r="G81" s="22"/>
-      <c r="H81" s="5"/>
+      <c r="H81" s="3"/>
       <c r="I81" s="10"/>
       <c r="J81" s="1"/>
     </row>
@@ -2946,7 +3257,7 @@
       <c r="E83" s="21"/>
       <c r="F83" s="29"/>
       <c r="G83" s="22"/>
-      <c r="H83" s="3"/>
+      <c r="H83" s="5"/>
       <c r="I83" s="10"/>
       <c r="J83" s="1"/>
     </row>
@@ -3018,7 +3329,7 @@
       <c r="E89" s="21"/>
       <c r="F89" s="29"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="5"/>
+      <c r="H89" s="3"/>
       <c r="I89" s="10"/>
       <c r="J89" s="1"/>
     </row>
@@ -3030,7 +3341,7 @@
       <c r="E90" s="21"/>
       <c r="F90" s="29"/>
       <c r="G90" s="22"/>
-      <c r="H90" s="3"/>
+      <c r="H90" s="5"/>
       <c r="I90" s="10"/>
       <c r="J90" s="1"/>
     </row>
@@ -3042,7 +3353,7 @@
       <c r="E91" s="21"/>
       <c r="F91" s="29"/>
       <c r="G91" s="22"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="10"/>
       <c r="J91" s="1"/>
     </row>
@@ -3054,7 +3365,7 @@
       <c r="E92" s="21"/>
       <c r="F92" s="29"/>
       <c r="G92" s="22"/>
-      <c r="H92" s="5"/>
+      <c r="H92" s="3"/>
       <c r="I92" s="10"/>
       <c r="J92" s="1"/>
     </row>
@@ -3090,7 +3401,7 @@
       <c r="E95" s="21"/>
       <c r="F95" s="29"/>
       <c r="G95" s="22"/>
-      <c r="H95" s="5"/>
+      <c r="H95" s="3"/>
       <c r="I95" s="10"/>
       <c r="J95" s="1"/>
     </row>
@@ -3138,7 +3449,7 @@
       <c r="E99" s="21"/>
       <c r="F99" s="29"/>
       <c r="G99" s="22"/>
-      <c r="H99" s="5"/>
+      <c r="H99" s="3"/>
       <c r="I99" s="10"/>
       <c r="J99" s="1"/>
     </row>
@@ -3198,7 +3509,7 @@
       <c r="E104" s="21"/>
       <c r="F104" s="29"/>
       <c r="G104" s="22"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="5"/>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
     </row>
@@ -3222,7 +3533,7 @@
       <c r="E106" s="21"/>
       <c r="F106" s="29"/>
       <c r="G106" s="22"/>
-      <c r="H106" s="3"/>
+      <c r="H106" s="5"/>
       <c r="I106" s="10"/>
       <c r="J106" s="1"/>
     </row>
@@ -3258,7 +3569,7 @@
       <c r="E109" s="21"/>
       <c r="F109" s="29"/>
       <c r="G109" s="22"/>
-      <c r="H109" s="5"/>
+      <c r="H109" s="3"/>
       <c r="I109" s="10"/>
       <c r="J109" s="1"/>
     </row>
@@ -3282,7 +3593,7 @@
       <c r="E111" s="21"/>
       <c r="F111" s="29"/>
       <c r="G111" s="22"/>
-      <c r="H111" s="3"/>
+      <c r="H111" s="5"/>
       <c r="I111" s="10"/>
       <c r="J111" s="1"/>
     </row>
@@ -3294,7 +3605,7 @@
       <c r="E112" s="21"/>
       <c r="F112" s="29"/>
       <c r="G112" s="22"/>
-      <c r="H112" s="3"/>
+      <c r="H112" s="5"/>
       <c r="I112" s="10"/>
       <c r="J112" s="1"/>
     </row>
@@ -3306,7 +3617,7 @@
       <c r="E113" s="21"/>
       <c r="F113" s="29"/>
       <c r="G113" s="22"/>
-      <c r="H113" s="5"/>
+      <c r="H113" s="3"/>
       <c r="I113" s="10"/>
       <c r="J113" s="1"/>
     </row>
@@ -3354,7 +3665,7 @@
       <c r="E117" s="21"/>
       <c r="F117" s="29"/>
       <c r="G117" s="22"/>
-      <c r="H117" s="3"/>
+      <c r="H117" s="5"/>
       <c r="I117" s="10"/>
       <c r="J117" s="1"/>
     </row>
@@ -3366,7 +3677,7 @@
       <c r="E118" s="21"/>
       <c r="F118" s="29"/>
       <c r="G118" s="22"/>
-      <c r="H118" s="3"/>
+      <c r="H118" s="5"/>
       <c r="I118" s="10"/>
       <c r="J118" s="1"/>
     </row>
@@ -3378,7 +3689,7 @@
       <c r="E119" s="21"/>
       <c r="F119" s="29"/>
       <c r="G119" s="22"/>
-      <c r="H119" s="3"/>
+      <c r="H119" s="5"/>
       <c r="I119" s="10"/>
       <c r="J119" s="1"/>
     </row>
@@ -3402,7 +3713,7 @@
       <c r="E121" s="21"/>
       <c r="F121" s="29"/>
       <c r="G121" s="22"/>
-      <c r="H121" s="5"/>
+      <c r="H121" s="3"/>
       <c r="I121" s="10"/>
       <c r="J121" s="1"/>
     </row>
@@ -3414,7 +3725,7 @@
       <c r="E122" s="21"/>
       <c r="F122" s="29"/>
       <c r="G122" s="22"/>
-      <c r="H122" s="3"/>
+      <c r="H122" s="5"/>
       <c r="I122" s="10"/>
       <c r="J122" s="1"/>
     </row>
@@ -3424,822 +3735,930 @@
       <c r="C123" s="19"/>
       <c r="D123" s="20"/>
       <c r="E123" s="21"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="39"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="10"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" ht="13.5">
+    <row r="124">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="20"/>
       <c r="E124" s="21"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="11"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="10"/>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
       <c r="D125" s="20"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="40"/>
-    </row>
-    <row r="126" ht="12.75" customHeight="1">
+      <c r="E125" s="21"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
       <c r="D126" s="20"/>
-      <c r="I126" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J126" s="2"/>
-    </row>
-    <row r="127" hidden="1">
+      <c r="E126" s="21"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
       <c r="D127" s="20"/>
-      <c r="I127" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J127" s="23"/>
-      <c r="K127" s="6"/>
-    </row>
-    <row r="128" hidden="1">
+      <c r="E127" s="21"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
       <c r="D128" s="20"/>
-      <c r="I128" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J128" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K128" s="6"/>
-    </row>
-    <row r="129" hidden="1">
+      <c r="E128" s="21"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
       <c r="D129" s="20"/>
-      <c r="I129" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" hidden="1">
+      <c r="E129" s="21"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
       <c r="D130" s="20"/>
-      <c r="I130" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J130" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" hidden="1">
+      <c r="E130" s="21"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
       <c r="D131" s="20"/>
-      <c r="I131" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" hidden="1">
-      <c r="A132" s="24"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="18"/>
       <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
       <c r="D132" s="20"/>
-      <c r="I132" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" hidden="1">
+      <c r="E132" s="21"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" ht="13.5">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
       <c r="D133" s="20"/>
-      <c r="I133" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" hidden="1">
+      <c r="E133" s="21"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="D134" s="20"/>
-      <c r="I134" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="135" hidden="1">
+      <c r="H134" s="8"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="40"/>
+    </row>
+    <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
       <c r="D135" s="20"/>
-      <c r="I135" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="I135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J135" s="2"/>
     </row>
     <row r="136" hidden="1">
-      <c r="A136" s="24"/>
+      <c r="A136" s="18"/>
       <c r="B136" s="19"/>
       <c r="D136" s="20"/>
       <c r="I136" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137" hidden="1" ht="13.5">
-      <c r="A137" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="J136" s="23"/>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" hidden="1">
+      <c r="A137" s="18"/>
       <c r="B137" s="19"/>
       <c r="D137" s="20"/>
       <c r="I137" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J137" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K137" s="6"/>
     </row>
     <row r="138" hidden="1">
+      <c r="A138" s="18"/>
       <c r="B138" s="19"/>
       <c r="D138" s="20"/>
+      <c r="I138" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="J138" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" hidden="1">
+      <c r="A139" s="18"/>
       <c r="B139" s="19"/>
       <c r="D139" s="20"/>
       <c r="I139" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" hidden="1">
+      <c r="A140" s="18"/>
       <c r="B140" s="19"/>
       <c r="D140" s="20"/>
-      <c r="I140" s="12">
-        <v>1</v>
+      <c r="I140" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141" hidden="1">
+      <c r="A141" s="24"/>
       <c r="B141" s="19"/>
       <c r="D141" s="20"/>
-      <c r="I141" s="12">
+      <c r="I141" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" hidden="1">
+      <c r="A142" s="18"/>
+      <c r="B142" s="19"/>
+      <c r="D142" s="20"/>
+      <c r="I142" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" hidden="1">
+      <c r="A143" s="18"/>
+      <c r="B143" s="19"/>
+      <c r="D143" s="20"/>
+      <c r="I143" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" hidden="1">
+      <c r="A144" s="18"/>
+      <c r="B144" s="19"/>
+      <c r="D144" s="20"/>
+      <c r="I144" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" hidden="1">
+      <c r="A145" s="24"/>
+      <c r="B145" s="19"/>
+      <c r="D145" s="20"/>
+      <c r="I145" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" hidden="1" ht="13.5">
+      <c r="A146" s="41"/>
+      <c r="B146" s="19"/>
+      <c r="D146" s="20"/>
+      <c r="I146" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" hidden="1">
+      <c r="B147" s="19"/>
+      <c r="D147" s="20"/>
+      <c r="J147" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" hidden="1">
+      <c r="B148" s="19"/>
+      <c r="D148" s="20"/>
+      <c r="I148" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" hidden="1">
+      <c r="B149" s="19"/>
+      <c r="D149" s="20"/>
+      <c r="I149" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" hidden="1">
+      <c r="B150" s="19"/>
+      <c r="D150" s="20"/>
+      <c r="I150" s="12">
         <v>2</v>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="142" hidden="1">
-      <c r="B142" s="19"/>
-      <c r="D142" s="35"/>
-      <c r="I142" s="12">
+      <c r="J150" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" hidden="1">
+      <c r="B151" s="19"/>
+      <c r="D151" s="35"/>
+      <c r="I151" s="12">
         <v>3</v>
       </c>
-      <c r="J142" s="28">
+      <c r="J151" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="143" hidden="1" ht="13.5">
-      <c r="B143" s="19"/>
-      <c r="D143" s="25"/>
-      <c r="I143" s="12">
+    <row r="152" hidden="1" ht="13.5">
+      <c r="B152" s="19"/>
+      <c r="D152" s="25"/>
+      <c r="I152" s="12">
         <v>4</v>
       </c>
-      <c r="J143" s="28">
+      <c r="J152" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="144" hidden="1">
-      <c r="B144" s="19"/>
-      <c r="I144" s="12">
+    <row r="153" hidden="1">
+      <c r="B153" s="19"/>
+      <c r="I153" s="12">
         <v>5</v>
       </c>
-      <c r="J144" s="28">
+      <c r="J153" s="28">
         <v>3</v>
-      </c>
-    </row>
-    <row r="145" hidden="1">
-      <c r="I145" s="12">
-        <v>6</v>
-      </c>
-      <c r="J145" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" hidden="1">
-      <c r="I146" s="12">
-        <v>7</v>
-      </c>
-      <c r="J146" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" hidden="1">
-      <c r="I147" s="12">
-        <v>8</v>
-      </c>
-      <c r="J147" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" hidden="1">
-      <c r="I148" s="12">
-        <v>9</v>
-      </c>
-      <c r="J148" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" hidden="1">
-      <c r="I149" s="12">
-        <v>10</v>
-      </c>
-      <c r="J149" s="28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" hidden="1">
-      <c r="I150" s="12">
-        <v>11</v>
-      </c>
-      <c r="J150" s="28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" hidden="1">
-      <c r="I151" s="12">
-        <v>12</v>
-      </c>
-      <c r="J151" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" hidden="1">
-      <c r="I152" s="12">
-        <v>13</v>
-      </c>
-      <c r="J152" s="28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" hidden="1">
-      <c r="I153" s="12">
-        <v>14</v>
-      </c>
-      <c r="J153" s="28">
-        <v>12</v>
       </c>
     </row>
     <row r="154" hidden="1">
       <c r="I154" s="12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J154" s="28">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" hidden="1">
       <c r="I155" s="12">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J155" s="28">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" hidden="1">
       <c r="I156" s="12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J156" s="28">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" hidden="1">
       <c r="I157" s="12">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J157" s="28">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" hidden="1">
       <c r="I158" s="12">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J158" s="28">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" hidden="1">
       <c r="I159" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J159" s="28">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" hidden="1">
       <c r="I160" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J160" s="28">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" hidden="1">
       <c r="I161" s="12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J161" s="28">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" hidden="1">
       <c r="I162" s="12">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J162" s="28">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" hidden="1">
       <c r="I163" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J163" s="28">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" hidden="1">
       <c r="I164" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J164" s="28">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" hidden="1">
       <c r="I165" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J165" s="28">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" hidden="1">
       <c r="I166" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J166" s="28">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" hidden="1">
       <c r="I167" s="12">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J167" s="28">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" hidden="1">
       <c r="I168" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J168" s="28">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" hidden="1">
       <c r="I169" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J169" s="28">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" hidden="1">
       <c r="I170" s="12">
+        <v>22</v>
+      </c>
+      <c r="J170" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" hidden="1">
+      <c r="I171" s="12">
+        <v>23</v>
+      </c>
+      <c r="J171" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" hidden="1">
+      <c r="I172" s="12">
+        <v>24</v>
+      </c>
+      <c r="J172" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" hidden="1">
+      <c r="I173" s="12">
+        <v>25</v>
+      </c>
+      <c r="J173" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" hidden="1">
+      <c r="I174" s="12">
+        <v>26</v>
+      </c>
+      <c r="J174" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" hidden="1">
+      <c r="I175" s="12">
+        <v>27</v>
+      </c>
+      <c r="J175" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" hidden="1">
+      <c r="I176" s="12">
+        <v>28</v>
+      </c>
+      <c r="J176" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" hidden="1">
+      <c r="I177" s="12">
+        <v>29</v>
+      </c>
+      <c r="J177" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" hidden="1">
+      <c r="I178" s="12">
+        <v>30</v>
+      </c>
+      <c r="J178" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" hidden="1">
+      <c r="I179" s="12">
         <v>31</v>
       </c>
-      <c r="J170" s="28">
+      <c r="J179" s="28">
         <v>29</v>
       </c>
     </row>
-    <row r="171" hidden="1">
-      <c r="J171" s="28">
+    <row r="180" hidden="1">
+      <c r="J180" s="28">
         <v>30</v>
-      </c>
-    </row>
-    <row r="172" hidden="1">
-      <c r="I172" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J172" s="28">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" hidden="1">
-      <c r="I173" s="6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="174" hidden="1">
-      <c r="I174" s="6">
-        <v>2018</v>
-      </c>
-      <c r="J174" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" hidden="1">
-      <c r="I175" s="6">
-        <v>2019</v>
-      </c>
-      <c r="J175" s="6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="176" hidden="1">
-      <c r="I176" s="6">
-        <v>2020</v>
-      </c>
-      <c r="J176" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="177" hidden="1">
-      <c r="I177" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J177" s="6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="178" hidden="1">
-      <c r="I178" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J178" s="6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="179" hidden="1">
-      <c r="I179" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J179" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" hidden="1">
-      <c r="I180" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J180" s="23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="181" hidden="1">
       <c r="I181" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J181" s="23" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="J181" s="28">
+        <v>31</v>
       </c>
     </row>
     <row r="182" hidden="1">
-      <c r="I182" s="8" t="s">
+      <c r="I182" s="6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" hidden="1">
+      <c r="I183" s="6">
+        <v>2018</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" hidden="1">
+      <c r="I184" s="6">
+        <v>2019</v>
+      </c>
+      <c r="J184" s="6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" hidden="1">
+      <c r="I185" s="6">
+        <v>2020</v>
+      </c>
+      <c r="J185" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="186" hidden="1">
+      <c r="I186" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J182" s="6" t="s">
+      <c r="J186" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="187" hidden="1">
+      <c r="I187" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="183" hidden="1">
-      <c r="I183" s="8" t="s">
+      <c r="J187" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="188" hidden="1">
+      <c r="I188" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J183" s="6" t="s">
+      <c r="J188" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" hidden="1">
+      <c r="I189" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="184" hidden="1">
-      <c r="I184" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J184" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="185" hidden="1">
-      <c r="I185" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J185" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="186" hidden="1">
-      <c r="I186" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J186" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="187" hidden="1">
-      <c r="I187" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J187" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="188" hidden="1">
-      <c r="I188" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J188" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="189" hidden="1">
-      <c r="I189" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J189" s="6" t="s">
-        <v>51</v>
+      <c r="J189" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="190" hidden="1">
       <c r="I190" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J190" s="23" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" hidden="1">
       <c r="I191" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="192" hidden="1">
+      <c r="I192" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" hidden="1">
+      <c r="I193" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J193" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" hidden="1">
+      <c r="I194" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J194" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" hidden="1">
+      <c r="I195" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J195" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" hidden="1">
+      <c r="I196" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J196" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" hidden="1">
+      <c r="I197" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J191" s="33" t="s">
+      <c r="J197" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="192" hidden="1" ht="25.5">
-      <c r="I192" s="14" t="s">
+    <row r="198" hidden="1">
+      <c r="I198" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J192" s="33" t="s">
+      <c r="J198" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="193" hidden="1">
-      <c r="J193" s="33" t="s">
+    <row r="199" hidden="1">
+      <c r="I199" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="194" hidden="1">
-      <c r="J194" s="6" t="s">
+      <c r="J199" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="195" hidden="1">
-      <c r="J195" s="6" t="s">
+    <row r="200" hidden="1">
+      <c r="I200" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="196" hidden="1">
-      <c r="J196" s="6" t="s">
+      <c r="J200" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="560">
-      <c r="H560" s="46"/>
-    </row>
-    <row r="561">
-      <c r="C561" s="46"/>
-      <c r="D561" s="49"/>
-      <c r="E561" s="46"/>
-      <c r="F561" s="46"/>
-      <c r="G561" s="51"/>
-      <c r="H561" s="50"/>
-      <c r="I561" s="46"/>
-    </row>
-    <row r="562">
-      <c r="B562" s="49"/>
-      <c r="C562" s="56"/>
-      <c r="D562" s="49"/>
-      <c r="E562" s="55"/>
-      <c r="F562" s="50"/>
-      <c r="G562" s="51"/>
-      <c r="H562" s="50"/>
-      <c r="I562" s="48"/>
-    </row>
-    <row r="563">
-      <c r="B563" s="49"/>
-      <c r="C563" s="56"/>
-      <c r="D563" s="49"/>
-      <c r="E563" s="55"/>
-      <c r="F563" s="50"/>
-      <c r="G563" s="54"/>
-      <c r="H563" s="52"/>
-      <c r="I563" s="48"/>
-      <c r="J563" s="46"/>
-    </row>
-    <row r="564">
-      <c r="B564" s="49"/>
-      <c r="C564" s="56"/>
-      <c r="D564" s="49"/>
-      <c r="E564" s="55"/>
-      <c r="F564" s="50"/>
-      <c r="G564" s="54"/>
-      <c r="H564" s="50"/>
-      <c r="I564" s="48"/>
-      <c r="J564" s="50"/>
-    </row>
-    <row r="565">
-      <c r="B565" s="49"/>
-      <c r="C565" s="56"/>
-      <c r="D565" s="49"/>
-      <c r="E565" s="55"/>
-      <c r="F565" s="50"/>
-      <c r="G565" s="54"/>
-      <c r="H565" s="50"/>
-      <c r="I565" s="48"/>
-      <c r="J565" s="45"/>
-    </row>
-    <row r="566">
-      <c r="B566" s="49"/>
-      <c r="C566" s="56"/>
-      <c r="D566" s="49"/>
-      <c r="E566" s="55"/>
-      <c r="F566" s="50"/>
-      <c r="G566" s="54"/>
-      <c r="H566" s="50"/>
-      <c r="I566" s="48"/>
-      <c r="J566" s="50"/>
-      <c r="L566" s="47"/>
-    </row>
-    <row r="567">
-      <c r="B567" s="49"/>
-      <c r="C567" s="56"/>
-      <c r="D567" s="49"/>
-      <c r="E567" s="55"/>
-      <c r="F567" s="50"/>
-      <c r="G567" s="54"/>
-      <c r="H567" s="53"/>
-      <c r="I567" s="48"/>
-      <c r="J567" s="50"/>
-      <c r="L567" s="47"/>
-    </row>
-    <row r="568">
-      <c r="J568" s="50"/>
-      <c r="L568" s="47"/>
+    <row r="201" hidden="1" ht="25.5">
+      <c r="I201" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J201" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="202" hidden="1">
+      <c r="J202" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="203" hidden="1">
+      <c r="J203" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="204" hidden="1">
+      <c r="J204" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="205" hidden="1">
+      <c r="J205" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="569">
-      <c r="I569" s="49"/>
-      <c r="J569" s="45"/>
-      <c r="L569" s="47"/>
+      <c r="H569" s="46"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="46"/>
+      <c r="D570" s="49"/>
+      <c r="E570" s="46"/>
+      <c r="F570" s="46"/>
+      <c r="G570" s="51"/>
+      <c r="H570" s="50"/>
+      <c r="I570" s="46"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="49"/>
+      <c r="C571" s="56"/>
+      <c r="D571" s="49"/>
+      <c r="E571" s="55"/>
+      <c r="F571" s="50"/>
+      <c r="G571" s="51"/>
+      <c r="H571" s="50"/>
+      <c r="I571" s="48"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="49"/>
+      <c r="C572" s="56"/>
+      <c r="D572" s="49"/>
+      <c r="E572" s="55"/>
+      <c r="F572" s="50"/>
+      <c r="G572" s="54"/>
+      <c r="H572" s="52"/>
+      <c r="I572" s="48"/>
+      <c r="J572" s="46"/>
     </row>
     <row r="573">
-      <c r="A573" s="46"/>
+      <c r="B573" s="49"/>
+      <c r="C573" s="56"/>
+      <c r="D573" s="49"/>
+      <c r="E573" s="55"/>
+      <c r="F573" s="50"/>
+      <c r="G573" s="54"/>
+      <c r="H573" s="50"/>
+      <c r="I573" s="48"/>
+      <c r="J573" s="50"/>
     </row>
     <row r="574">
-      <c r="A574" s="57"/>
+      <c r="B574" s="49"/>
+      <c r="C574" s="56"/>
+      <c r="D574" s="49"/>
+      <c r="E574" s="55"/>
+      <c r="F574" s="50"/>
+      <c r="G574" s="54"/>
+      <c r="H574" s="50"/>
+      <c r="I574" s="48"/>
+      <c r="J574" s="45"/>
     </row>
     <row r="575">
-      <c r="A575" s="57"/>
+      <c r="B575" s="49"/>
+      <c r="C575" s="56"/>
+      <c r="D575" s="49"/>
+      <c r="E575" s="55"/>
+      <c r="F575" s="50"/>
+      <c r="G575" s="54"/>
+      <c r="H575" s="50"/>
+      <c r="I575" s="48"/>
+      <c r="J575" s="50"/>
+      <c r="L575" s="47"/>
     </row>
     <row r="576">
-      <c r="A576" s="57"/>
+      <c r="B576" s="49"/>
+      <c r="C576" s="56"/>
+      <c r="D576" s="49"/>
+      <c r="E576" s="55"/>
+      <c r="F576" s="50"/>
+      <c r="G576" s="54"/>
+      <c r="H576" s="53"/>
+      <c r="I576" s="48"/>
+      <c r="J576" s="50"/>
+      <c r="L576" s="47"/>
     </row>
     <row r="577">
-      <c r="A577" s="57"/>
+      <c r="J577" s="50"/>
+      <c r="L577" s="47"/>
     </row>
     <row r="578">
-      <c r="A578" s="57"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="57"/>
-    </row>
-    <row r="580">
-      <c r="D580" s="46"/>
-    </row>
-    <row r="581">
-      <c r="B581" s="46"/>
-      <c r="C581" s="49"/>
-      <c r="D581" s="58"/>
+      <c r="I578" s="49"/>
+      <c r="J578" s="45"/>
+      <c r="L578" s="47"/>
     </row>
     <row r="582">
-      <c r="A582" s="49"/>
-      <c r="B582" s="56"/>
-      <c r="C582" s="49"/>
-      <c r="D582" s="58"/>
+      <c r="A582" s="46"/>
     </row>
     <row r="583">
-      <c r="A583" s="49"/>
-      <c r="B583" s="56"/>
-      <c r="C583" s="49"/>
-      <c r="D583" s="58"/>
+      <c r="A583" s="57"/>
     </row>
     <row r="584">
-      <c r="A584" s="49"/>
-      <c r="B584" s="56"/>
-      <c r="C584" s="49"/>
-      <c r="D584" s="58"/>
+      <c r="A584" s="57"/>
     </row>
     <row r="585">
-      <c r="A585" s="49"/>
-      <c r="B585" s="56"/>
-      <c r="C585" s="49"/>
-      <c r="D585" s="58"/>
+      <c r="A585" s="57"/>
     </row>
     <row r="586">
-      <c r="A586" s="49"/>
-      <c r="B586" s="56"/>
-      <c r="C586" s="49"/>
-      <c r="D586" s="58"/>
+      <c r="A586" s="57"/>
     </row>
     <row r="587">
-      <c r="A587" s="49"/>
-      <c r="B587" s="56"/>
+      <c r="A587" s="57"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="57"/>
+    </row>
+    <row r="589">
+      <c r="D589" s="46"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="46"/>
+      <c r="C590" s="49"/>
+      <c r="D590" s="58"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="49"/>
+      <c r="B591" s="56"/>
+      <c r="C591" s="49"/>
+      <c r="D591" s="58"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="49"/>
+      <c r="B592" s="56"/>
+      <c r="C592" s="49"/>
+      <c r="D592" s="58"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="49"/>
+      <c r="B593" s="56"/>
+      <c r="C593" s="49"/>
+      <c r="D593" s="58"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="49"/>
+      <c r="B594" s="56"/>
+      <c r="C594" s="49"/>
+      <c r="D594" s="58"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="49"/>
+      <c r="B595" s="56"/>
+      <c r="C595" s="49"/>
+      <c r="D595" s="58"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="49"/>
+      <c r="B596" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="15">
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Se puede Ingresar hasta 255 Cara" sqref="H80 H86 H83 H58 H55 H117:H120 H122:H123 H72 H65 H69 H111:H112 H90:H91 H77 H100 H106 H104 H61 H115 H565 H561:H562 H42:H53 H18:H40" xr:uid="{A7DCE912-4862-4E7F-A8B3-2F3C129F146A}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Se puede Ingresar hasta 255 Cara" sqref="H89 H95 H92 H67 H64 H126:H129 H131:H132 H81 H74 H78 H120:H121 H99:H100 H86 H109 H115 H113 H70 H124 H574 H570:H571 H51:H62 H27:H49" xr:uid="{A7DCE912-4862-4E7F-A8B3-2F3C129F146A}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="H564 H566" xr:uid="{E3248714-41A2-4397-8ABD-CE285B024D25}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="H573 H575" xr:uid="{E3248714-41A2-4397-8ABD-CE285B024D25}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Observaciones" error="Usted se ha Excedido en la longitud del texto permitido" promptTitle="Observaciones" prompt="Ingrese las Observaciones" sqref="J564:J569 J18:J126" xr:uid="{57C70329-BB03-4565-BB93-856D0BE36A94}">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Observaciones" error="Usted se ha Excedido en la longitud del texto permitido" promptTitle="Observaciones" prompt="Ingrese las Observaciones" sqref="J573:J578 J27:J135" xr:uid="{57C70329-BB03-4565-BB93-856D0BE36A94}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A574:A579 A56:A136 A18:A40 A42:A49" xr:uid="{D8A8B14D-0056-40E3-95A9-AB62D4A3F894}">
-      <formula1>$J$142:$J$172</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A583:A588 A65:A145 A27:A49 A51:A58" xr:uid="{D8A8B14D-0056-40E3-95A9-AB62D4A3F894}">
+      <formula1>$J$151:$J$181</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Mes" error="Mes Invalido" sqref="B582:B587" xr:uid="{FA8B54D1-5D43-4762-B676-1D9A9871D4F2}">
-      <formula1>$J$128:$J$139</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Mes" error="Mes Invalido" sqref="B591:B596" xr:uid="{FA8B54D1-5D43-4762-B676-1D9A9871D4F2}">
+      <formula1>$J$137:$J$148</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Año" error="Año Invalido" sqref="C562:C567" xr:uid="{7D45B7F3-5370-4673-ABDF-40B15C5120AA}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Año" error="Año Invalido" sqref="C571:C576" xr:uid="{7D45B7F3-5370-4673-ABDF-40B15C5120AA}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulo" error="Usted Ingreso un Modulo no Habilitado" promptTitle="Modulo" prompt="Ingrese Modulo" sqref="I562:I567 I18:I124" xr:uid="{098A3A25-2F98-4200-A36F-44504B60841D}">
-      <formula1>$I$182:$I$192</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulo" error="Usted Ingreso un Modulo no Habilitado" promptTitle="Modulo" prompt="Ingrese Modulo" sqref="I571:I576 I27:I133" xr:uid="{098A3A25-2F98-4200-A36F-44504B60841D}">
+      <formula1>$I$191:$I$201</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC  ó UN" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN" sqref="F562:F567" xr:uid="{8B2B5952-CB3D-4B33-921E-92CD74F53FC7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC  ó UN" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN" sqref="F571:F576" xr:uid="{8B2B5952-CB3D-4B33-921E-92CD74F53FC7}">
       <formula1>"SJ,SC,NB,UN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G562:G567" xr:uid="{D3777987-3AFD-4FC2-8AE8-A92DB72B1F48}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G571:G576" xr:uid="{D3777987-3AFD-4FC2-8AE8-A92DB72B1F48}">
       <formula1>"MC-NORM,MC-APLIC,DE-NORM,DE-APLIC,SO-NORM,SO-APLIC,OT-OT"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A1" xr:uid="{4D568C38-93F2-4661-9983-10C5454859ED}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E562:E567" xr:uid="{ACD22563-CE5F-4CC1-A4E9-8CBA33CD4100}">
-      <formula1>$J$180:$J$183</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E571:E576" xr:uid="{ACD22563-CE5F-4CC1-A4E9-8CBA33CD4100}">
+      <formula1>$J$189:$J$192</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="K21:K37" xr:uid="{5206AB88-4CB0-4DF6-904C-E1DAE636883E}">
-      <formula1>$J$180:$J$196</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="K30:K46" xr:uid="{5206AB88-4CB0-4DF6-904C-E1DAE636883E}">
+      <formula1>$J$189:$J$205</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G42:G124 G18:G40" xr:uid="{6937496A-B0FB-4BDC-AF93-D01B65AF477B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G51:G133 G27:G49" xr:uid="{6937496A-B0FB-4BDC-AF93-D01B65AF477B}">
       <formula1>"MC-NORM,MC-APLIC,DE-NORM,DE-APLIC,ASIST-PROD,ASIST-TEST,ASIST-REQ,ASIST-TEC,OT-OT"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC, NB, UN  ó MI" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN, MI" sqref="F42:F124 F18:F40" xr:uid="{0779D551-2D13-470F-A8BD-74589B6E462D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC, NB, UN  ó MI" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN, MI" sqref="F51:F133 F27:F49" xr:uid="{0779D551-2D13-470F-A8BD-74589B6E462D}">
       <formula1>"SJ,SC,NB,UN,MI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E42:E124 E18:E40" xr:uid="{7D11D665-1B62-4C1E-987F-84172D3C3E3B}">
-      <formula1>$K$21:$K$38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E51:E133 E27:E49" xr:uid="{7D11D665-1B62-4C1E-987F-84172D3C3E3B}">
+      <formula1>$K$30:$K$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
